--- a/文档/学校查询系统数据库.xlsx
+++ b/文档/学校查询系统数据库.xlsx
@@ -1,48 +1,573 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="15675" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>学校表</t>
+  </si>
+  <si>
+    <t>字段中文</t>
+  </si>
+  <si>
+    <t>字段代码</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>学校id</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>学校名称</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>学校地址</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>学校类型</t>
+  </si>
+  <si>
+    <t>0专科 1本科</t>
+  </si>
+  <si>
+    <t>头像src</t>
+  </si>
+  <si>
+    <t>学校简介</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>学校官网网址</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>学校校标src</t>
+  </si>
+  <si>
+    <t>盐值</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>admin管理员  user普通用户</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>0是正常 1是冻结</t>
+  </si>
+  <si>
+    <t>教师表</t>
+  </si>
+  <si>
+    <t>图片表</t>
+  </si>
+  <si>
+    <t>教师id</t>
+  </si>
+  <si>
+    <t>图片id</t>
+  </si>
+  <si>
+    <t>所处学校id</t>
+  </si>
+  <si>
+    <t>关联学校id</t>
+  </si>
+  <si>
+    <t>教师名称</t>
+  </si>
+  <si>
+    <t>图片类型</t>
+  </si>
+  <si>
+    <t>教师证件照</t>
+  </si>
+  <si>
+    <t>图片地址src</t>
+  </si>
+  <si>
+    <t>教师简介</t>
+  </si>
+  <si>
+    <t>授课专业</t>
+  </si>
+  <si>
+    <t>教学工龄</t>
+  </si>
+  <si>
+    <t>职称</t>
+  </si>
+  <si>
+    <t>评论回复表</t>
+  </si>
+  <si>
+    <t>分数表</t>
+  </si>
+  <si>
+    <t>评论回复id</t>
+  </si>
+  <si>
+    <t>分数表id</t>
+  </si>
+  <si>
+    <t>评论的学校id</t>
+  </si>
+  <si>
+    <t>评论的id</t>
+  </si>
+  <si>
+    <t>不是回复别人这为空</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>是否是评论</t>
+  </si>
+  <si>
+    <t>1是评论 0是回复</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>评论的内容</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>评论时间</t>
+  </si>
+  <si>
+    <t>评论人用户名</t>
+  </si>
+  <si>
+    <t>评论人id</t>
+  </si>
+  <si>
+    <t>公共字段</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,27 +575,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -355,50 +1173,384 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/学校查询系统数据库.xlsx
+++ b/文档/学校查询系统数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15675" windowHeight="11820"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>用户表</t>
   </si>
@@ -48,7 +48,7 @@
     <t>密码</t>
   </si>
   <si>
-    <t>学校地址</t>
+    <t>学校具体地址</t>
   </si>
   <si>
     <t>用户名</t>
@@ -192,7 +192,7 @@
     <t>更新时间</t>
   </si>
   <si>
-    <t>创建者</t>
+    <t>操作者</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,61 +222,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,84 +344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +375,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,175 +471,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,10 +571,43 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -602,15 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,15 +639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,66 +666,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,104 +719,104 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +827,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,6 +885,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1177,21 +1178,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="33.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="10.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1486,34 +1487,48 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1522,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1530,7 +1545,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1539,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1547,7 +1562,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/文档/学校查询系统数据库.xlsx
+++ b/文档/学校查询系统数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,66 +16,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+  <si>
+    <t>通知表</t>
+  </si>
+  <si>
+    <t>评论回复表</t>
+  </si>
+  <si>
+    <t>字段中文</t>
+  </si>
+  <si>
+    <t>字段代码</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>通知id</t>
+  </si>
+  <si>
+    <t>评论回复id</t>
+  </si>
+  <si>
+    <t>分数表</t>
+  </si>
+  <si>
+    <t>通知状态</t>
+  </si>
+  <si>
+    <t>0是已读 1是未读</t>
+  </si>
+  <si>
+    <t>评论的学校id</t>
+  </si>
+  <si>
+    <t>通知人id</t>
+  </si>
+  <si>
+    <t>被评论评论表的id</t>
+  </si>
+  <si>
+    <t>不是回复别人这为空</t>
+  </si>
+  <si>
+    <t>分数表id</t>
+  </si>
+  <si>
+    <t>通知内容id</t>
+  </si>
+  <si>
+    <t>评论或者举报表</t>
+  </si>
+  <si>
+    <t>被评论人用户名</t>
+  </si>
+  <si>
+    <t>不是回复为空</t>
+  </si>
+  <si>
+    <t>学校id</t>
+  </si>
+  <si>
+    <t>被评论人id</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>是否是评论</t>
+  </si>
+  <si>
+    <t>1是评论 0是回复</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>评论的内容</t>
+  </si>
+  <si>
+    <t>专业id</t>
+  </si>
+  <si>
+    <t>评论状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1删除 1正常</t>
+  </si>
+  <si>
+    <t>评论图片src</t>
+  </si>
+  <si>
+    <t>评论时间</t>
+  </si>
+  <si>
+    <t>评论人用户名</t>
+  </si>
+  <si>
+    <t>评论人id</t>
+  </si>
+  <si>
+    <t>1（专业）：1（分数）</t>
+  </si>
+  <si>
+    <t>1（学校）：N（评论回复）</t>
+  </si>
+  <si>
+    <t>学校表</t>
+  </si>
+  <si>
+    <t>图片表</t>
+  </si>
+  <si>
+    <t>1（学校）：N（介绍图片）</t>
+  </si>
+  <si>
+    <t>专业表</t>
+  </si>
+  <si>
+    <t>学校名称</t>
+  </si>
+  <si>
+    <t>1（学校）：N（专业）</t>
+  </si>
+  <si>
+    <t>图片id</t>
+  </si>
+  <si>
+    <t>学校具体地址</t>
+  </si>
+  <si>
+    <t>关联学校id</t>
+  </si>
+  <si>
+    <t>学校类型</t>
+  </si>
+  <si>
+    <t>0专科 1本科</t>
+  </si>
+  <si>
+    <t>图片类型</t>
+  </si>
+  <si>
+    <t>学校简介</t>
+  </si>
+  <si>
+    <t>专业名称</t>
+  </si>
+  <si>
+    <t>图片地址src</t>
+  </si>
+  <si>
+    <t>学校官网网址</t>
+  </si>
+  <si>
+    <t>学院id</t>
+  </si>
+  <si>
+    <t>学校校标src</t>
+  </si>
+  <si>
+    <t>1（老师）：1（专业）</t>
+  </si>
+  <si>
+    <t>招生热线</t>
+  </si>
+  <si>
+    <t>招生办负责人</t>
+  </si>
+  <si>
+    <t>创校时间</t>
+  </si>
+  <si>
+    <t>1(学校):N（学院）</t>
+  </si>
+  <si>
+    <t>教师表</t>
+  </si>
   <si>
     <t>用户表</t>
   </si>
   <si>
-    <t>学校表</t>
-  </si>
-  <si>
-    <t>字段中文</t>
-  </si>
-  <si>
-    <t>字段代码</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>教师id</t>
   </si>
   <si>
     <t>用户id</t>
   </si>
   <si>
-    <t>学校id</t>
+    <t>学院表</t>
+  </si>
+  <si>
+    <t>所处学校id</t>
   </si>
   <si>
     <t>账号</t>
   </si>
   <si>
-    <t>学校名称</t>
+    <t>教师名称</t>
   </si>
   <si>
     <t>密码</t>
   </si>
   <si>
-    <t>学校具体地址</t>
+    <t>教师证件照</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>学校类型</t>
-  </si>
-  <si>
-    <t>0专科 1本科</t>
+    <t>1（老师）：1（学院）</t>
+  </si>
+  <si>
+    <t>教师简介</t>
   </si>
   <si>
     <t>头像src</t>
   </si>
   <si>
-    <t>学校简介</t>
+    <t>学院名称</t>
+  </si>
+  <si>
+    <t>授课专业</t>
   </si>
   <si>
     <t>性别</t>
   </si>
   <si>
-    <t>学校官网网址</t>
+    <t>学院介绍</t>
+  </si>
+  <si>
+    <t>教学工龄</t>
   </si>
   <si>
     <t>年龄</t>
   </si>
   <si>
-    <t>学校校标src</t>
+    <t>学院负责人</t>
+  </si>
+  <si>
+    <t>职称</t>
   </si>
   <si>
     <t>盐值</t>
@@ -91,96 +271,6 @@
   </si>
   <si>
     <t>0是正常 1是冻结</t>
-  </si>
-  <si>
-    <t>教师表</t>
-  </si>
-  <si>
-    <t>图片表</t>
-  </si>
-  <si>
-    <t>教师id</t>
-  </si>
-  <si>
-    <t>图片id</t>
-  </si>
-  <si>
-    <t>所处学校id</t>
-  </si>
-  <si>
-    <t>关联学校id</t>
-  </si>
-  <si>
-    <t>教师名称</t>
-  </si>
-  <si>
-    <t>图片类型</t>
-  </si>
-  <si>
-    <t>教师证件照</t>
-  </si>
-  <si>
-    <t>图片地址src</t>
-  </si>
-  <si>
-    <t>教师简介</t>
-  </si>
-  <si>
-    <t>授课专业</t>
-  </si>
-  <si>
-    <t>教学工龄</t>
-  </si>
-  <si>
-    <t>职称</t>
-  </si>
-  <si>
-    <t>评论回复表</t>
-  </si>
-  <si>
-    <t>分数表</t>
-  </si>
-  <si>
-    <t>评论回复id</t>
-  </si>
-  <si>
-    <t>分数表id</t>
-  </si>
-  <si>
-    <t>评论的学校id</t>
-  </si>
-  <si>
-    <t>评论的id</t>
-  </si>
-  <si>
-    <t>不是回复别人这为空</t>
-  </si>
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>是否是评论</t>
-  </si>
-  <si>
-    <t>1是评论 0是回复</t>
-  </si>
-  <si>
-    <t>分数</t>
-  </si>
-  <si>
-    <t>评论的内容</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>评论时间</t>
-  </si>
-  <si>
-    <t>评论人用户名</t>
-  </si>
-  <si>
-    <t>评论人id</t>
   </si>
   <si>
     <t>公共字段</t>
@@ -200,8 +290,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -222,8 +312,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,23 +359,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,14 +396,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,38 +418,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +434,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,23 +448,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,192 +465,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -569,26 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +677,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,22 +753,42 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -674,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,151 +813,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1180,13 +1322,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1194,23 +1336,30 @@
     <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="10.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="11.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="7.44444444444444" customWidth="1"/>
+    <col min="11" max="11" width="22.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="21.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="17" max="17" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1220,315 +1369,739 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="K6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="Q6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="Q8" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="K9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="Q9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="K10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="K11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="K12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="K13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="K14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="Q14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="K15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="11:19">
+      <c r="K18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="11:19">
+      <c r="K19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="5:19">
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="Q20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="5:19">
+      <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3" t="s">
+    </row>
+    <row r="22" spans="5:19">
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="5:19">
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="5:19">
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="5:19">
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="11:19">
+      <c r="K26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="Q26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="11:19">
+      <c r="K27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="11:19">
+      <c r="K28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="11:19">
+      <c r="K29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="11:19">
+      <c r="K30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="11:19">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="11:19">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="Q32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="Q33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    <row r="34" spans="1:19">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="Q34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="K35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="Q35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="K36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="K37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="Q37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="Q41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="Q42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C48" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>58</v>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="17">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="N21:P23"/>
+    <mergeCell ref="Q14:S19"/>
+    <mergeCell ref="H20:J25"/>
+    <mergeCell ref="K15:M17"/>
+    <mergeCell ref="K30:M34"/>
+    <mergeCell ref="N38:P40"/>
+    <mergeCell ref="Q26:S31"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
